--- a/tests/advanced/randomized_tests/b09.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b09.stpprocessed_rand_results_test.xlsx
@@ -582,28 +582,28 @@
         <v>69</v>
       </c>
       <c r="D2">
-        <v>0.0001100767403841019</v>
+        <v>0.0001473743468523026</v>
       </c>
       <c r="E2">
-        <v>0.04076577676460147</v>
+        <v>0.05991979921236634</v>
       </c>
       <c r="F2">
         <v>69</v>
       </c>
       <c r="G2">
-        <v>0.002943747211247683</v>
+        <v>0.003837752155959606</v>
       </c>
       <c r="H2">
-        <v>0.004286400508135557</v>
+        <v>0.005477836821228266</v>
       </c>
       <c r="I2">
-        <v>0.01118041714653373</v>
+        <v>0.02246203320100904</v>
       </c>
       <c r="J2">
-        <v>0.01901285583153367</v>
+        <v>0.02479381486773491</v>
       </c>
       <c r="K2">
-        <v>0.0009397631511092186</v>
+        <v>0.0009760116226971149</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -615,28 +615,28 @@
         <v>69</v>
       </c>
       <c r="D3">
-        <v>0.003700915724039078</v>
+        <v>0.003482725005596876</v>
       </c>
       <c r="E3">
-        <v>0.05413173325359821</v>
+        <v>0.07466513523831964</v>
       </c>
       <c r="F3">
         <v>69</v>
       </c>
       <c r="G3">
-        <v>0.003012459259480238</v>
+        <v>0.003667639102786779</v>
       </c>
       <c r="H3">
-        <v>0.008143708575516939</v>
+        <v>0.009227469563484192</v>
       </c>
       <c r="I3">
-        <v>0.01208561053499579</v>
+        <v>0.02369260974228382</v>
       </c>
       <c r="J3">
-        <v>0.02739920187741518</v>
+        <v>0.03439414640888572</v>
       </c>
       <c r="K3">
-        <v>0.0009974390268325806</v>
+        <v>0.0009975670836865902</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -648,28 +648,28 @@
         <v>69</v>
       </c>
       <c r="D4">
-        <v>0.004134804010391235</v>
+        <v>0.006249985191971064</v>
       </c>
       <c r="E4">
-        <v>0.0606868090108037</v>
+        <v>0.1103353081271052</v>
       </c>
       <c r="F4">
         <v>69</v>
       </c>
       <c r="G4">
-        <v>0.003862511832267046</v>
+        <v>0.00509729515761137</v>
       </c>
       <c r="H4">
-        <v>0.008881192188709974</v>
+        <v>0.01410595281049609</v>
       </c>
       <c r="I4">
-        <v>0.01341212028637528</v>
+        <v>0.03555978508666158</v>
       </c>
       <c r="J4">
-        <v>0.03080849023535848</v>
+        <v>0.05052705015987158</v>
       </c>
       <c r="K4">
-        <v>0.001007185783237219</v>
+        <v>0.001348899677395821</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -681,28 +681,28 @@
         <v>69</v>
       </c>
       <c r="D5">
-        <v>0.0001680096611380577</v>
+        <v>0.0002870620228350163</v>
       </c>
       <c r="E5">
-        <v>0.0429283119738102</v>
+        <v>0.1013815561309457</v>
       </c>
       <c r="F5">
         <v>69</v>
       </c>
       <c r="G5">
-        <v>0.003008672501891851</v>
+        <v>0.005632365588098764</v>
       </c>
       <c r="H5">
-        <v>0.004551943391561508</v>
+        <v>0.008304687682539225</v>
       </c>
       <c r="I5">
-        <v>0.01236642384901643</v>
+        <v>0.03757016872987151</v>
       </c>
       <c r="J5">
-        <v>0.01953246956691146</v>
+        <v>0.04413108481094241</v>
       </c>
       <c r="K5">
-        <v>0.0009785559959709644</v>
+        <v>0.001469585113227367</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -714,28 +714,28 @@
         <v>227</v>
       </c>
       <c r="D6">
-        <v>0.007395078428089619</v>
+        <v>0.007547407876700163</v>
       </c>
       <c r="E6">
-        <v>0.250555626116693</v>
+        <v>0.5355360498651862</v>
       </c>
       <c r="F6">
         <v>227</v>
       </c>
       <c r="G6">
-        <v>0.008319269400089979</v>
+        <v>0.01110966224223375</v>
       </c>
       <c r="H6">
-        <v>0.02216038620099425</v>
+        <v>0.02704109204933047</v>
       </c>
       <c r="I6">
-        <v>0.1406504465267062</v>
+        <v>0.4203811264596879</v>
       </c>
       <c r="J6">
-        <v>0.06776870461180806</v>
+        <v>0.06456113280728459</v>
       </c>
       <c r="K6">
-        <v>0.003530044108629227</v>
+        <v>0.003652263898402452</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -761,28 +761,28 @@
         <v>69</v>
       </c>
       <c r="D8">
-        <v>0.0001100767403841019</v>
+        <v>0.0001473743468523026</v>
       </c>
       <c r="E8">
-        <v>0.04076577676460147</v>
+        <v>0.05991979921236634</v>
       </c>
       <c r="F8">
         <v>69</v>
       </c>
       <c r="G8">
-        <v>0.002943747211247683</v>
+        <v>0.003837752155959606</v>
       </c>
       <c r="H8">
-        <v>0.004286400508135557</v>
+        <v>0.005477836821228266</v>
       </c>
       <c r="I8">
-        <v>0.01118041714653373</v>
+        <v>0.02246203320100904</v>
       </c>
       <c r="J8">
-        <v>0.01901285583153367</v>
+        <v>0.02479381486773491</v>
       </c>
       <c r="K8">
-        <v>0.0009397631511092186</v>
+        <v>0.0009760116226971149</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -794,28 +794,28 @@
         <v>69</v>
       </c>
       <c r="D9">
-        <v>0.003700915724039078</v>
+        <v>0.003482725005596876</v>
       </c>
       <c r="E9">
-        <v>0.05413173325359821</v>
+        <v>0.07466513523831964</v>
       </c>
       <c r="F9">
         <v>69</v>
       </c>
       <c r="G9">
-        <v>0.003012459259480238</v>
+        <v>0.003667639102786779</v>
       </c>
       <c r="H9">
-        <v>0.008143708575516939</v>
+        <v>0.009227469563484192</v>
       </c>
       <c r="I9">
-        <v>0.01208561053499579</v>
+        <v>0.02369260974228382</v>
       </c>
       <c r="J9">
-        <v>0.02739920187741518</v>
+        <v>0.03439414640888572</v>
       </c>
       <c r="K9">
-        <v>0.0009974390268325806</v>
+        <v>0.0009975670836865902</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -827,28 +827,28 @@
         <v>69</v>
       </c>
       <c r="D10">
-        <v>0.004134804010391235</v>
+        <v>0.006249985191971064</v>
       </c>
       <c r="E10">
-        <v>0.0606868090108037</v>
+        <v>0.1103353081271052</v>
       </c>
       <c r="F10">
         <v>69</v>
       </c>
       <c r="G10">
-        <v>0.003862511832267046</v>
+        <v>0.00509729515761137</v>
       </c>
       <c r="H10">
-        <v>0.008881192188709974</v>
+        <v>0.01410595281049609</v>
       </c>
       <c r="I10">
-        <v>0.01341212028637528</v>
+        <v>0.03555978508666158</v>
       </c>
       <c r="J10">
-        <v>0.03080849023535848</v>
+        <v>0.05052705015987158</v>
       </c>
       <c r="K10">
-        <v>0.001007185783237219</v>
+        <v>0.001348899677395821</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -860,28 +860,28 @@
         <v>69</v>
       </c>
       <c r="D11">
-        <v>0.0001680096611380577</v>
+        <v>0.0002870620228350163</v>
       </c>
       <c r="E11">
-        <v>0.0429283119738102</v>
+        <v>0.1013815561309457</v>
       </c>
       <c r="F11">
         <v>69</v>
       </c>
       <c r="G11">
-        <v>0.003008672501891851</v>
+        <v>0.005632365588098764</v>
       </c>
       <c r="H11">
-        <v>0.004551943391561508</v>
+        <v>0.008304687682539225</v>
       </c>
       <c r="I11">
-        <v>0.01236642384901643</v>
+        <v>0.03757016872987151</v>
       </c>
       <c r="J11">
-        <v>0.01953246956691146</v>
+        <v>0.04413108481094241</v>
       </c>
       <c r="K11">
-        <v>0.0009785559959709644</v>
+        <v>0.001469585113227367</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -893,28 +893,28 @@
         <v>227</v>
       </c>
       <c r="D12">
-        <v>0.007395078428089619</v>
+        <v>0.007547407876700163</v>
       </c>
       <c r="E12">
-        <v>0.250555626116693</v>
+        <v>0.5355360498651862</v>
       </c>
       <c r="F12">
         <v>227</v>
       </c>
       <c r="G12">
-        <v>0.008319269400089979</v>
+        <v>0.01110966224223375</v>
       </c>
       <c r="H12">
-        <v>0.02216038620099425</v>
+        <v>0.02704109204933047</v>
       </c>
       <c r="I12">
-        <v>0.1406504465267062</v>
+        <v>0.4203811264596879</v>
       </c>
       <c r="J12">
-        <v>0.06776870461180806</v>
+        <v>0.06456113280728459</v>
       </c>
       <c r="K12">
-        <v>0.003530044108629227</v>
+        <v>0.003652263898402452</v>
       </c>
     </row>
     <row r="13" spans="1:11">

--- a/tests/advanced/randomized_tests/b09.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b09.stpprocessed_rand_results_test.xlsx
@@ -15,42 +15,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
-    <t>S*-BS</t>
-  </si>
-  <si>
     <t>S*-HS</t>
   </si>
   <si>
-    <t>S*-MM</t>
-  </si>
-  <si>
-    <t>S*-MM0</t>
-  </si>
-  <si>
-    <t>S*-unmerged</t>
-  </si>
-  <si>
     <t>var</t>
   </si>
   <si>
-    <t>S*-BSND</t>
-  </si>
-  <si>
     <t>S*-HSND</t>
-  </si>
-  <si>
-    <t>S*-MMND</t>
-  </si>
-  <si>
-    <t>S*-MM0ND</t>
-  </si>
-  <si>
-    <t>S*-unmergedND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -444,13 +420,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:5">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -463,32 +439,8 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -499,33 +451,9 @@
         <v>236</v>
       </c>
       <c r="D2">
-        <v>236</v>
-      </c>
-      <c r="E2">
-        <v>236</v>
-      </c>
-      <c r="F2">
-        <v>236</v>
-      </c>
-      <c r="G2">
-        <v>236</v>
-      </c>
-      <c r="H2">
         <v>0</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
-      <c r="K2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L2" t="b">
-        <v>0</v>
-      </c>
-      <c r="M2" t="b">
+      <c r="E2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -536,7 +464,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,395 +472,131 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D2">
-        <v>0.0001473743468523026</v>
+        <v>0.005651857703924179</v>
       </c>
       <c r="E2">
-        <v>0.05991979921236634</v>
+        <v>0.07051856303587556</v>
       </c>
       <c r="F2">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G2">
-        <v>0.003837752155959606</v>
+        <v>0.005707386415451765</v>
       </c>
       <c r="H2">
-        <v>0.005477836821228266</v>
+        <v>0.01254452858120203</v>
       </c>
       <c r="I2">
-        <v>0.02246203320100904</v>
+        <v>0.02184281684458256</v>
       </c>
       <c r="J2">
-        <v>0.02479381486773491</v>
+        <v>0.02389890234917402</v>
       </c>
       <c r="K2">
-        <v>0.0009760116226971149</v>
+        <v>0.002611013129353523</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>69</v>
-      </c>
-      <c r="D3">
-        <v>0.003482725005596876</v>
+        <v>2850</v>
       </c>
       <c r="E3">
-        <v>0.07466513523831964</v>
-      </c>
-      <c r="F3">
-        <v>69</v>
-      </c>
-      <c r="G3">
-        <v>0.003667639102786779</v>
-      </c>
-      <c r="H3">
-        <v>0.009227469563484192</v>
-      </c>
-      <c r="I3">
-        <v>0.02369260974228382</v>
-      </c>
-      <c r="J3">
-        <v>0.03439414640888572</v>
-      </c>
-      <c r="K3">
-        <v>0.0009975670836865902</v>
+        <v>0.03013174654915929</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="D4">
-        <v>0.006249985191971064</v>
+        <v>0.005651857703924179</v>
       </c>
       <c r="E4">
-        <v>0.1103353081271052</v>
+        <v>0.07051856303587556</v>
       </c>
       <c r="F4">
-        <v>69</v>
+        <v>98</v>
       </c>
       <c r="G4">
-        <v>0.00509729515761137</v>
+        <v>0.005707386415451765</v>
       </c>
       <c r="H4">
-        <v>0.01410595281049609</v>
+        <v>0.01254452858120203</v>
       </c>
       <c r="I4">
-        <v>0.03555978508666158</v>
+        <v>0.02184281684458256</v>
       </c>
       <c r="J4">
-        <v>0.05052705015987158</v>
+        <v>0.02389890234917402</v>
       </c>
       <c r="K4">
-        <v>0.001348899677395821</v>
+        <v>0.002611013129353523</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>69</v>
-      </c>
-      <c r="D5">
-        <v>0.0002870620228350163</v>
+        <v>2850</v>
       </c>
       <c r="E5">
-        <v>0.1013815561309457</v>
-      </c>
-      <c r="F5">
-        <v>69</v>
-      </c>
-      <c r="G5">
-        <v>0.005632365588098764</v>
-      </c>
-      <c r="H5">
-        <v>0.008304687682539225</v>
-      </c>
-      <c r="I5">
-        <v>0.03757016872987151</v>
-      </c>
-      <c r="J5">
-        <v>0.04413108481094241</v>
-      </c>
-      <c r="K5">
-        <v>0.001469585113227367</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>227</v>
-      </c>
-      <c r="D6">
-        <v>0.007547407876700163</v>
-      </c>
-      <c r="E6">
-        <v>0.5355360498651862</v>
-      </c>
-      <c r="F6">
-        <v>227</v>
-      </c>
-      <c r="G6">
-        <v>0.01110966224223375</v>
-      </c>
-      <c r="H6">
-        <v>0.02704109204933047</v>
-      </c>
-      <c r="I6">
-        <v>0.4203811264596879</v>
-      </c>
-      <c r="J6">
-        <v>0.06456113280728459</v>
-      </c>
-      <c r="K6">
-        <v>0.003652263898402452</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7">
-        <v>2850</v>
-      </c>
-      <c r="E7">
-        <v>0.03013174654915929</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>69</v>
-      </c>
-      <c r="D8">
-        <v>0.0001473743468523026</v>
-      </c>
-      <c r="E8">
-        <v>0.05991979921236634</v>
-      </c>
-      <c r="F8">
-        <v>69</v>
-      </c>
-      <c r="G8">
-        <v>0.003837752155959606</v>
-      </c>
-      <c r="H8">
-        <v>0.005477836821228266</v>
-      </c>
-      <c r="I8">
-        <v>0.02246203320100904</v>
-      </c>
-      <c r="J8">
-        <v>0.02479381486773491</v>
-      </c>
-      <c r="K8">
-        <v>0.0009760116226971149</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9">
-        <v>69</v>
-      </c>
-      <c r="D9">
-        <v>0.003482725005596876</v>
-      </c>
-      <c r="E9">
-        <v>0.07466513523831964</v>
-      </c>
-      <c r="F9">
-        <v>69</v>
-      </c>
-      <c r="G9">
-        <v>0.003667639102786779</v>
-      </c>
-      <c r="H9">
-        <v>0.009227469563484192</v>
-      </c>
-      <c r="I9">
-        <v>0.02369260974228382</v>
-      </c>
-      <c r="J9">
-        <v>0.03439414640888572</v>
-      </c>
-      <c r="K9">
-        <v>0.0009975670836865902</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10">
-        <v>69</v>
-      </c>
-      <c r="D10">
-        <v>0.006249985191971064</v>
-      </c>
-      <c r="E10">
-        <v>0.1103353081271052</v>
-      </c>
-      <c r="F10">
-        <v>69</v>
-      </c>
-      <c r="G10">
-        <v>0.00509729515761137</v>
-      </c>
-      <c r="H10">
-        <v>0.01410595281049609</v>
-      </c>
-      <c r="I10">
-        <v>0.03555978508666158</v>
-      </c>
-      <c r="J10">
-        <v>0.05052705015987158</v>
-      </c>
-      <c r="K10">
-        <v>0.001348899677395821</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11">
-        <v>69</v>
-      </c>
-      <c r="D11">
-        <v>0.0002870620228350163</v>
-      </c>
-      <c r="E11">
-        <v>0.1013815561309457</v>
-      </c>
-      <c r="F11">
-        <v>69</v>
-      </c>
-      <c r="G11">
-        <v>0.005632365588098764</v>
-      </c>
-      <c r="H11">
-        <v>0.008304687682539225</v>
-      </c>
-      <c r="I11">
-        <v>0.03757016872987151</v>
-      </c>
-      <c r="J11">
-        <v>0.04413108481094241</v>
-      </c>
-      <c r="K11">
-        <v>0.001469585113227367</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12">
-        <v>227</v>
-      </c>
-      <c r="D12">
-        <v>0.007547407876700163</v>
-      </c>
-      <c r="E12">
-        <v>0.5355360498651862</v>
-      </c>
-      <c r="F12">
-        <v>227</v>
-      </c>
-      <c r="G12">
-        <v>0.01110966224223375</v>
-      </c>
-      <c r="H12">
-        <v>0.02704109204933047</v>
-      </c>
-      <c r="I12">
-        <v>0.4203811264596879</v>
-      </c>
-      <c r="J12">
-        <v>0.06456113280728459</v>
-      </c>
-      <c r="K12">
-        <v>0.003652263898402452</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13">
-        <v>2850</v>
-      </c>
-      <c r="E13">
         <v>0.03013174654915929</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/tests/advanced/randomized_tests/b09.stpprocessed_rand_results_test.xlsx
+++ b/tests/advanced/randomized_tests/b09.stpprocessed_rand_results_test.xlsx
@@ -15,18 +15,60 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Baseline-Kruskal</t>
   </si>
   <si>
+    <t>S*-BS</t>
+  </si>
+  <si>
     <t>S*-HS</t>
   </si>
   <si>
+    <t>S*-MM</t>
+  </si>
+  <si>
+    <t>S*-MM0</t>
+  </si>
+  <si>
+    <t>S*-BS-UN</t>
+  </si>
+  <si>
+    <t>S*-HS-UN</t>
+  </si>
+  <si>
+    <t>S*-MM-UN</t>
+  </si>
+  <si>
+    <t>S*-MM0-UN</t>
+  </si>
+  <si>
     <t>var</t>
   </si>
   <si>
+    <t>S*-BSND</t>
+  </si>
+  <si>
     <t>S*-HSND</t>
+  </si>
+  <si>
+    <t>S*-MMND</t>
+  </si>
+  <si>
+    <t>S*-MM0ND</t>
+  </si>
+  <si>
+    <t>S*-BS-UNND</t>
+  </si>
+  <si>
+    <t>S*-HS-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM-UNND</t>
+  </si>
+  <si>
+    <t>S*-MM0-UNND</t>
   </si>
   <si>
     <t>expanded_nodes</t>
@@ -420,13 +462,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:19">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -439,8 +481,50 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -451,9 +535,51 @@
         <v>236</v>
       </c>
       <c r="D2">
+        <v>236</v>
+      </c>
+      <c r="E2">
+        <v>236</v>
+      </c>
+      <c r="F2">
+        <v>236</v>
+      </c>
+      <c r="G2">
+        <v>236</v>
+      </c>
+      <c r="H2">
+        <v>236</v>
+      </c>
+      <c r="I2">
+        <v>236</v>
+      </c>
+      <c r="J2">
+        <v>236</v>
+      </c>
+      <c r="K2">
         <v>0</v>
       </c>
-      <c r="E2" t="b">
+      <c r="L2" t="b">
+        <v>0</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+      <c r="N2" t="b">
+        <v>0</v>
+      </c>
+      <c r="O2" t="b">
+        <v>0</v>
+      </c>
+      <c r="P2" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="b">
+        <v>0</v>
+      </c>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="b">
         <v>0</v>
       </c>
     </row>
@@ -464,7 +590,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -472,131 +598,593 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="C1" s="1" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D2">
-        <v>0.005651857703924179</v>
+        <v>0.0004565301351249218</v>
       </c>
       <c r="E2">
-        <v>0.07051856303587556</v>
+        <v>0.063925267662853</v>
       </c>
       <c r="F2">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G2">
-        <v>0.005707386415451765</v>
+        <v>0.006225570570677519</v>
       </c>
       <c r="H2">
-        <v>0.01254452858120203</v>
+        <v>0.007150132209062576</v>
       </c>
       <c r="I2">
-        <v>0.02184281684458256</v>
+        <v>0.02116018626838923</v>
       </c>
       <c r="J2">
-        <v>0.02389890234917402</v>
+        <v>0.0221608760766685</v>
       </c>
       <c r="K2">
-        <v>0.002611013129353523</v>
+        <v>0.002873376477509737</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2850</v>
+        <v>98</v>
+      </c>
+      <c r="D3">
+        <v>0.009282265324145555</v>
       </c>
       <c r="E3">
-        <v>0.03013174654915929</v>
+        <v>0.1066516665741801</v>
+      </c>
+      <c r="F3">
+        <v>98</v>
+      </c>
+      <c r="G3">
+        <v>0.008287469390779734</v>
+      </c>
+      <c r="H3">
+        <v>0.01921659335494041</v>
+      </c>
+      <c r="I3">
+        <v>0.03376806201413274</v>
+      </c>
+      <c r="J3">
+        <v>0.03559489641338587</v>
+      </c>
+      <c r="K3">
+        <v>0.003926751203835011</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="D4">
-        <v>0.005651857703924179</v>
+        <v>0.006161036901175976</v>
       </c>
       <c r="E4">
-        <v>0.07051856303587556</v>
+        <v>0.08483053417876363</v>
       </c>
       <c r="F4">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="G4">
-        <v>0.005707386415451765</v>
+        <v>0.006531206890940666</v>
       </c>
       <c r="H4">
-        <v>0.01254452858120203</v>
+        <v>0.01370007405057549</v>
       </c>
       <c r="I4">
-        <v>0.02184281684458256</v>
+        <v>0.0223876372911036</v>
       </c>
       <c r="J4">
-        <v>0.02389890234917402</v>
+        <v>0.03525390243157744</v>
       </c>
       <c r="K4">
-        <v>0.002611013129353523</v>
+        <v>0.002840513363480568</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C5">
+        <v>69</v>
+      </c>
+      <c r="D5">
+        <v>0.0002801204100251198</v>
+      </c>
+      <c r="E5">
+        <v>0.06998592661693692</v>
+      </c>
+      <c r="F5">
+        <v>69</v>
+      </c>
+      <c r="G5">
+        <v>0.00710479449480772</v>
+      </c>
+      <c r="H5">
+        <v>0.007907046936452389</v>
+      </c>
+      <c r="I5">
+        <v>0.02302805567160249</v>
+      </c>
+      <c r="J5">
+        <v>0.0241871546022594</v>
+      </c>
+      <c r="K5">
+        <v>0.002864477690309286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>227</v>
+      </c>
+      <c r="D6">
+        <v>0.001370367128401995</v>
+      </c>
+      <c r="E6">
+        <v>0.3390379557386041</v>
+      </c>
+      <c r="F6">
+        <v>227</v>
+      </c>
+      <c r="G6">
+        <v>0.0171691682189703</v>
+      </c>
+      <c r="H6">
+        <v>0.02290476392954588</v>
+      </c>
+      <c r="I6">
+        <v>0.2424037526361644</v>
+      </c>
+      <c r="J6">
+        <v>0.03510219231247902</v>
+      </c>
+      <c r="K6">
+        <v>0.008974860887974501</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>856</v>
+      </c>
+      <c r="D7">
+        <v>0.03068636823445559</v>
+      </c>
+      <c r="E7">
+        <v>1.30923025496304</v>
+      </c>
+      <c r="F7">
+        <v>856</v>
+      </c>
+      <c r="G7">
+        <v>0.04848892847076058</v>
+      </c>
+      <c r="H7">
+        <v>0.09765535406768322</v>
+      </c>
+      <c r="I7">
+        <v>0.9746015514247119</v>
+      </c>
+      <c r="J7">
+        <v>0.1228316873311996</v>
+      </c>
+      <c r="K7">
+        <v>0.02812287025153637</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>227</v>
+      </c>
+      <c r="D8">
+        <v>0.01418158272281289</v>
+      </c>
+      <c r="E8">
+        <v>0.4201098643243313</v>
+      </c>
+      <c r="F8">
+        <v>227</v>
+      </c>
+      <c r="G8">
+        <v>0.01695438753813505</v>
+      </c>
+      <c r="H8">
+        <v>0.03881150251254439</v>
+      </c>
+      <c r="I8">
+        <v>0.2626906582154334</v>
+      </c>
+      <c r="J8">
+        <v>0.07935141306370497</v>
+      </c>
+      <c r="K8">
+        <v>0.009196383412927389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>227</v>
+      </c>
+      <c r="D9">
+        <v>0.001894254237413406</v>
+      </c>
+      <c r="E9">
+        <v>0.3688213927671313</v>
+      </c>
+      <c r="F9">
+        <v>227</v>
+      </c>
+      <c r="G9">
+        <v>0.0171232158318162</v>
+      </c>
+      <c r="H9">
+        <v>0.02634717663750052</v>
+      </c>
+      <c r="I9">
+        <v>0.2666379450820386</v>
+      </c>
+      <c r="J9">
+        <v>0.03606965439394116</v>
+      </c>
+      <c r="K9">
+        <v>0.009397880174219608</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10">
         <v>2850</v>
       </c>
-      <c r="E5">
+      <c r="E10">
+        <v>0.03013174654915929</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>69</v>
+      </c>
+      <c r="D11">
+        <v>0.0004565301351249218</v>
+      </c>
+      <c r="E11">
+        <v>0.063925267662853</v>
+      </c>
+      <c r="F11">
+        <v>69</v>
+      </c>
+      <c r="G11">
+        <v>0.006225570570677519</v>
+      </c>
+      <c r="H11">
+        <v>0.007150132209062576</v>
+      </c>
+      <c r="I11">
+        <v>0.02116018626838923</v>
+      </c>
+      <c r="J11">
+        <v>0.0221608760766685</v>
+      </c>
+      <c r="K11">
+        <v>0.002873376477509737</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>98</v>
+      </c>
+      <c r="D12">
+        <v>0.009282265324145555</v>
+      </c>
+      <c r="E12">
+        <v>0.1066516665741801</v>
+      </c>
+      <c r="F12">
+        <v>98</v>
+      </c>
+      <c r="G12">
+        <v>0.008287469390779734</v>
+      </c>
+      <c r="H12">
+        <v>0.01921659335494041</v>
+      </c>
+      <c r="I12">
+        <v>0.03376806201413274</v>
+      </c>
+      <c r="J12">
+        <v>0.03559489641338587</v>
+      </c>
+      <c r="K12">
+        <v>0.003926751203835011</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>0.006161036901175976</v>
+      </c>
+      <c r="E13">
+        <v>0.08483053417876363</v>
+      </c>
+      <c r="F13">
+        <v>69</v>
+      </c>
+      <c r="G13">
+        <v>0.006531206890940666</v>
+      </c>
+      <c r="H13">
+        <v>0.01370007405057549</v>
+      </c>
+      <c r="I13">
+        <v>0.0223876372911036</v>
+      </c>
+      <c r="J13">
+        <v>0.03525390243157744</v>
+      </c>
+      <c r="K13">
+        <v>0.002840513363480568</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>0.0002801204100251198</v>
+      </c>
+      <c r="E14">
+        <v>0.06998592661693692</v>
+      </c>
+      <c r="F14">
+        <v>69</v>
+      </c>
+      <c r="G14">
+        <v>0.00710479449480772</v>
+      </c>
+      <c r="H14">
+        <v>0.007907046936452389</v>
+      </c>
+      <c r="I14">
+        <v>0.02302805567160249</v>
+      </c>
+      <c r="J14">
+        <v>0.0241871546022594</v>
+      </c>
+      <c r="K14">
+        <v>0.002864477690309286</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15">
+        <v>227</v>
+      </c>
+      <c r="D15">
+        <v>0.001370367128401995</v>
+      </c>
+      <c r="E15">
+        <v>0.3390379557386041</v>
+      </c>
+      <c r="F15">
+        <v>227</v>
+      </c>
+      <c r="G15">
+        <v>0.0171691682189703</v>
+      </c>
+      <c r="H15">
+        <v>0.02290476392954588</v>
+      </c>
+      <c r="I15">
+        <v>0.2424037526361644</v>
+      </c>
+      <c r="J15">
+        <v>0.03510219231247902</v>
+      </c>
+      <c r="K15">
+        <v>0.008974860887974501</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>856</v>
+      </c>
+      <c r="D16">
+        <v>0.03068636823445559</v>
+      </c>
+      <c r="E16">
+        <v>1.30923025496304</v>
+      </c>
+      <c r="F16">
+        <v>856</v>
+      </c>
+      <c r="G16">
+        <v>0.04848892847076058</v>
+      </c>
+      <c r="H16">
+        <v>0.09765535406768322</v>
+      </c>
+      <c r="I16">
+        <v>0.9746015514247119</v>
+      </c>
+      <c r="J16">
+        <v>0.1228316873311996</v>
+      </c>
+      <c r="K16">
+        <v>0.02812287025153637</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>227</v>
+      </c>
+      <c r="D17">
+        <v>0.01418158272281289</v>
+      </c>
+      <c r="E17">
+        <v>0.4201098643243313</v>
+      </c>
+      <c r="F17">
+        <v>227</v>
+      </c>
+      <c r="G17">
+        <v>0.01695438753813505</v>
+      </c>
+      <c r="H17">
+        <v>0.03881150251254439</v>
+      </c>
+      <c r="I17">
+        <v>0.2626906582154334</v>
+      </c>
+      <c r="J17">
+        <v>0.07935141306370497</v>
+      </c>
+      <c r="K17">
+        <v>0.009196383412927389</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>227</v>
+      </c>
+      <c r="D18">
+        <v>0.001894254237413406</v>
+      </c>
+      <c r="E18">
+        <v>0.3688213927671313</v>
+      </c>
+      <c r="F18">
+        <v>227</v>
+      </c>
+      <c r="G18">
+        <v>0.0171232158318162</v>
+      </c>
+      <c r="H18">
+        <v>0.02634717663750052</v>
+      </c>
+      <c r="I18">
+        <v>0.2666379450820386</v>
+      </c>
+      <c r="J18">
+        <v>0.03606965439394116</v>
+      </c>
+      <c r="K18">
+        <v>0.009397880174219608</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19">
+        <v>2850</v>
+      </c>
+      <c r="E19">
         <v>0.03013174654915929</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
